--- a/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,84</t>
+          <t>20,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>64,59%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 42,62</t>
+          <t>-5,7; 38,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 30,55</t>
+          <t>-8,11; 31,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,87; 221,0</t>
+          <t>-12,56; 197,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 238,02</t>
+          <t>-26,56; 337,89</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 27,3</t>
+          <t>-22,31; 27,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 22,18</t>
+          <t>-39,64; 21,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 241,98</t>
+          <t>-51,01; 216,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 273,44</t>
+          <t>-74,52; 319,83</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>19,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>97,69%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 21,36</t>
+          <t>-7,61; 20,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 28,34</t>
+          <t>6,31; 33,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 172,81</t>
+          <t>-24,02; 143,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 227,39</t>
+          <t>20,99; 262,09</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 14,51</t>
+          <t>-5,44; 17,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 16,37</t>
+          <t>-10,71; 14,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 122,59</t>
+          <t>-26,75; 195,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 112,27</t>
+          <t>-37,37; 91,97</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 15,74</t>
+          <t>-13,78; 16,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 19,02</t>
+          <t>-14,06; 16,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 123,64</t>
+          <t>-55,8; 131,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 176,21</t>
+          <t>-57,48; 137,86</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,18</t>
+          <t>22,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>203,14%</t>
+          <t>313,57%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 20,47</t>
+          <t>-13,28; 23,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 36,06</t>
+          <t>6,8; 39,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 185,07</t>
+          <t>-58,31; 407,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,63; 602,53</t>
+          <t>21,61; 1725,68</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>52,88%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,42</t>
+          <t>0,14; 15,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 17,93</t>
+          <t>-0,19; 16,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,16; 91,1</t>
+          <t>-0,54; 88,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,57; 120,49</t>
+          <t>-4,7; 104,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>20,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>66,17%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>64,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>20.97458199971653</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16.6887806011378</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.6617161542836003</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.8703232291693153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 38,5</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,11; 31,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,56; 197,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,56; 337,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.701239856009501</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.48339800062497</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.125574808767892</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1609065935473405</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>38.49590911678968</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>37.52207866149448</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.970332411844133</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>4.071818339558651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>26,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,31; 27,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-39,64; 21,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-51,01; 216,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-74,52; 319,83</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.234639014191119</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.593294653945845</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.269319993316712</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2047026253974619</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>29,41%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>97,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-22.30794061284738</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-28.41457198207673</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5100905034513898</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6689526509821853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 20,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 33,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,02; 143,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>20,99; 262,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>27.07191584030501</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>25.1353802704654</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.162490204055174</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.430700062778746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>36,64%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,45%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.617321885973126</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.59564476546223</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.294140727891984</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.861229465516906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 17,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 14,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,75; 195,55</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-37,37; 91,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.610855059500897</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.644540906787553</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2401713329263453</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.1090312470818381</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.79617052602944</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>32.8698468335442</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.43245992656497</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.666647770790665</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 16,31</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,06; 16,26</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-55,8; 131,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-57,48; 137,86</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.646756221801247</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.633515980002437</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3664142432022586</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.06936830167610061</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38,54%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>313,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.440231336038675</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.80471181852387</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2674554760332746</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3813711993724433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 23,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 39,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-58,31; 407,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,61; 1725,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.24089069748781</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.70729999149175</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.955511808432777</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.9328270896309767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>37,02%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>52,88%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.7181750024073397</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.456865115616138</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.03758377978652152</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.08142094750609978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 15,11</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 16,34</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 88,14</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 104,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.78159464937009</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.86320325551836</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.5579527382015963</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5769277578191124</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.30534305487959</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.05670042008068</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.310410611444817</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.392468455404666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.969094745005768</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>23.69890268089484</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.3853854364598031</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3.604985527197209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.2776049558384</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>7.952078320616912</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5831088560545579</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.3279475953220006</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>23.90392120889395</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>40.35953333655728</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>4.072663648111146</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>18.30834739937227</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7.900942017966472</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.27670947898726</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.3701948645363754</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.578515566169703</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.1382278475162728</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.649122729120277</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.005445425453920465</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.05332781150064982</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.11154264326664</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>17.32356331498089</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.8813800335715949</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.130190390822661</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
